--- a/level-2/hackerrank-phase-2-data-structures/hackerrank-phase-2-data-structures.xlsx
+++ b/level-2/hackerrank-phase-2-data-structures/hackerrank-phase-2-data-structures.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BD278-028B-4D84-B1AF-007028A638A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F66E01C-95B4-4CB0-84B8-F72C1B739636}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,13 +250,6 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -301,14 +294,14 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -394,74 +387,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -863,1756 +853,1749 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="4" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="7" t="e">
-        <f>AVERAGE(C4:C113)</f>
+      <c r="A3" s="16"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="6" t="e">
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C113)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D3" s="7" t="e">
-        <f>AVERAGE(D4:D113)</f>
+      <c r="D3" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E3" s="7" t="e">
-        <f>AVERAGE(E4:E113)</f>
+      <c r="E3" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F3" s="7" t="e">
-        <f>AVERAGE(F4:F113)</f>
+      <c r="F3" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="7" t="e">
-        <f>AVERAGE(G4:G113)</f>
+      <c r="G3" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="7">
-        <f>AVERAGE(H4:H113)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <f>COUNTA(I4:I817)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>COUNTA(J4:J817)</f>
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="7">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7">
         <f>SUM(C6:G6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7">
         <f>SUM(C7:G7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8">
-        <f t="shared" ref="H8:H55" si="0">SUM(C8:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="12" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7">
+        <f t="shared" ref="H8:H55" si="1">SUM(C8:G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="12" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="12" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="12" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="12" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="12" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="12" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="12" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="12" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="12" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="12" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="12" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="12" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="12" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="12" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="12" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="12" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="12" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="12" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="12" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="12" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="12" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="12" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="20" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="12" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="12" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="12" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="12" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="12" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="12" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="12" t="s">
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="12" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="12" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="12" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="12" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="12" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="12" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="12" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="20" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="12" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="12" t="s">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="12" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="12" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="12" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="12" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="12" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="12" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="12" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="12" t="s">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2"/>
+      <c r="J54" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="12" t="s">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="8"/>
-      <c r="J56" s="13"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="7"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="8"/>
-      <c r="J57" s="13"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="7"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="8"/>
-      <c r="J58" s="13"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="7"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="8"/>
-      <c r="J59" s="13"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="7"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="8"/>
-      <c r="J60" s="13"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="7"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="8"/>
-      <c r="J61" s="13"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="7"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="8"/>
-      <c r="J62" s="13"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="7"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="8"/>
-      <c r="J63" s="13"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="7"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="8"/>
-      <c r="J64" s="13"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="7"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="8"/>
-      <c r="J65" s="13"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="7"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="8"/>
-      <c r="J66" s="13"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="7"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="8"/>
-      <c r="J67" s="13"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="7"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="8"/>
-      <c r="J68" s="13"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="7"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="8"/>
-      <c r="J69" s="13"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="7"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="8"/>
-      <c r="J70" s="13"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="7"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="8"/>
-      <c r="J71" s="13"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="7"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="8"/>
-      <c r="J72" s="13"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="7"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="8"/>
-      <c r="J73" s="13"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="7"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="8"/>
-      <c r="J74" s="13"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="7"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="8"/>
-      <c r="J75" s="13"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="7"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="8"/>
-      <c r="J76" s="13"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="7"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="8"/>
-      <c r="J77" s="13"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="7"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="8"/>
-      <c r="J78" s="13"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="7"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="8"/>
-      <c r="J79" s="13"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="7"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="8"/>
-      <c r="J80" s="13"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="7"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="8"/>
-      <c r="J81" s="13"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="7"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="8"/>
-      <c r="J82" s="14"/>
+      <c r="A82" s="4"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="8"/>
-      <c r="J83" s="14"/>
+      <c r="A83" s="4"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="8"/>
-      <c r="J84" s="14"/>
+      <c r="A84" s="4"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="8"/>
-      <c r="J85" s="14"/>
+      <c r="A85" s="4"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="8"/>
-      <c r="J86" s="14"/>
+      <c r="A86" s="4"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="8"/>
-      <c r="J87" s="14"/>
+      <c r="A87" s="4"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="8"/>
-      <c r="J88" s="14"/>
+      <c r="A88" s="4"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="8"/>
+      <c r="A89" s="4"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="8"/>
+      <c r="A90" s="4"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="8"/>
+      <c r="A91" s="4"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="8"/>
+      <c r="A92" s="4"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="8"/>
+      <c r="A93" s="4"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="8"/>
+      <c r="A94" s="4"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="8"/>
+      <c r="A95" s="4"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="8"/>
+      <c r="A96" s="4"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="8"/>
+      <c r="A97" s="4"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="8"/>
+      <c r="A98" s="4"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="8"/>
+      <c r="A99" s="4"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="8"/>
+      <c r="A100" s="4"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="8"/>
+      <c r="A101" s="4"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="8"/>
+      <c r="A102" s="4"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="8"/>
+      <c r="A103" s="4"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="7"/>
     </row>
     <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="8"/>
+      <c r="A104" s="4"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="8"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="8"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="8"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="8"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="8"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="7"/>
     </row>
     <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="8"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="8"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="7"/>
     </row>
     <row r="113" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="8"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/level-2/hackerrank-phase-2-data-structures/hackerrank-phase-2-data-structures.xlsx
+++ b/level-2/hackerrank-phase-2-data-structures/hackerrank-phase-2-data-structures.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F66E01C-95B4-4CB0-84B8-F72C1B739636}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E9665-4BBF-4C46-9392-DF321A8FD5A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="102">
   <si>
     <t>Problem Link</t>
   </si>
@@ -222,6 +222,105 @@
   </si>
   <si>
     <t>Learning Time in (min)</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/grading/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/apple-and-orange/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/kangaroo/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/between-two-sets/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/breaking-best-and-worst-records/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/the-birthday-bar/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/divisible-sum-pairs/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/migratory-birds/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/day-of-the-programmer/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/bon-appetit/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sock-merchant/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/drawing-book/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/counting-valleys/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/electronics-shop/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/cats-and-a-mouse/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/the-hurdle-race/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/designer-pdf-viewer/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/utopian-tree/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/angry-professor/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/beautiful-days-at-the-movies/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/strange-advertising/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/save-the-prisoner/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/circular-array-rotation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/permutation-equation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/jumping-on-the-clouds-revisited/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/find-digits/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/append-and-delete/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sherlock-and-squares/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/library-fine/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/cut-the-sticks/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/repeated-string/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/jumping-on-the-clouds/problem</t>
   </si>
 </sst>
 </file>
@@ -387,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,6 +516,15 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -444,14 +552,11 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -858,56 +963,56 @@
     <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="22" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="6" t="e">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C113)</f>
         <v>#DIV/0!</v>
@@ -938,7 +1043,7 @@
       </c>
       <c r="J3" s="5">
         <f>COUNTA(J4:J817)</f>
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -958,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -978,7 +1083,7 @@
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -999,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1020,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1041,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1062,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1083,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1104,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1125,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1146,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1167,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1188,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1209,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1230,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1251,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1272,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1293,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1314,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1335,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1356,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="20" t="s">
+      <c r="J23" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1377,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1398,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1419,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1440,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1461,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1482,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1503,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1524,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1545,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="20" t="s">
+      <c r="J32" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1566,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1587,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1608,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1629,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1650,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1671,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1692,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="20" t="s">
+      <c r="J39" s="11" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1713,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="20" t="s">
+      <c r="J40" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1734,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="20" t="s">
+      <c r="J41" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1755,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="20" t="s">
+      <c r="J42" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1776,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1797,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1818,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1839,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1860,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="20" t="s">
+      <c r="J47" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1881,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="20" t="s">
+      <c r="J48" s="11" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1902,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="20" t="s">
+      <c r="J49" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1923,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1944,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1965,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="20" t="s">
+      <c r="J52" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1986,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2007,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="20" t="s">
+      <c r="J54" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2028,358 +2133,696 @@
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="20" t="s">
+      <c r="J55" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="7"/>
-      <c r="J56" s="21"/>
+      <c r="H56" s="23">
+        <f>SUM(C56:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="24"/>
+      <c r="J56" s="11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="7"/>
-      <c r="J57" s="21"/>
+      <c r="H57" s="23">
+        <f>SUM(C57:G57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="24"/>
+      <c r="J57" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="7"/>
-      <c r="J58" s="21"/>
+      <c r="H58" s="23">
+        <f>SUM(C58:G58)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="24"/>
+      <c r="J58" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="7"/>
-      <c r="J59" s="21"/>
+      <c r="H59" s="23">
+        <f>SUM(C59:G59)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="24"/>
+      <c r="J59" s="11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="7"/>
-      <c r="J60" s="21"/>
+      <c r="H60" s="23">
+        <f>SUM(C60:G60)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="24"/>
+      <c r="J60" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="7"/>
-      <c r="J61" s="21"/>
+      <c r="H61" s="23">
+        <f>SUM(C61:G61)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="24"/>
+      <c r="J61" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="7"/>
-      <c r="J62" s="21"/>
+      <c r="H62" s="23">
+        <f>SUM(C62:G62)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="24"/>
+      <c r="J62" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="A63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="7"/>
-      <c r="J63" s="21"/>
+      <c r="H63" s="23">
+        <f>SUM(C63:G63)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="24"/>
+      <c r="J63" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="7"/>
-      <c r="J64" s="21"/>
+      <c r="H64" s="23">
+        <f>SUM(C64:G64)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="24"/>
+      <c r="J64" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="7"/>
-      <c r="J65" s="21"/>
+      <c r="H65" s="23">
+        <f>SUM(C65:G65)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="7"/>
-      <c r="J66" s="21"/>
+      <c r="H66" s="23">
+        <f>SUM(C66:G66)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="24"/>
+      <c r="J66" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="A67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="7"/>
-      <c r="J67" s="21"/>
+      <c r="H67" s="23">
+        <f>SUM(C67:G67)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="24"/>
+      <c r="J67" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="7"/>
-      <c r="J68" s="21"/>
+      <c r="A68" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="23">
+        <f>SUM(C68:G68)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="24"/>
+      <c r="J68" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="A69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="7"/>
-      <c r="J69" s="21"/>
+      <c r="H69" s="23">
+        <f>SUM(C69:G69)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="24"/>
+      <c r="J69" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="7"/>
-      <c r="J70" s="21"/>
+      <c r="H70" s="23">
+        <f>SUM(C70:G70)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="24"/>
+      <c r="J70" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="A71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="7"/>
-      <c r="J71" s="21"/>
+      <c r="H71" s="23">
+        <f>SUM(C71:G71)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="24"/>
+      <c r="J71" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
+      <c r="A72" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="7"/>
-      <c r="J72" s="21"/>
+      <c r="H72" s="23">
+        <f>SUM(C72:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="24"/>
+      <c r="J72" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="A73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="7"/>
-      <c r="J73" s="21"/>
+      <c r="H73" s="23">
+        <f>SUM(C73:G73)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="24"/>
+      <c r="J73" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="7"/>
-      <c r="J74" s="21"/>
+      <c r="A74" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="23">
+        <f>SUM(C74:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="24"/>
+      <c r="J74" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="A75" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="7"/>
-      <c r="J75" s="21"/>
+      <c r="H75" s="23">
+        <f>SUM(C75:G75)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="24"/>
+      <c r="J75" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
+      <c r="A76" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="7"/>
-      <c r="J76" s="21"/>
+      <c r="H76" s="23">
+        <f>SUM(C76:G76)</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="24"/>
+      <c r="J76" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="7"/>
-      <c r="J77" s="21"/>
+      <c r="A77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="23">
+        <f>SUM(C77:G77)</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="24"/>
+      <c r="J77" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
+      <c r="A78" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="7"/>
-      <c r="J78" s="21"/>
+      <c r="H78" s="23">
+        <f>SUM(C78:G78)</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="24"/>
+      <c r="J78" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="A79" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="7"/>
-      <c r="J79" s="21"/>
+      <c r="H79" s="23">
+        <f>SUM(C79:G79)</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="24"/>
+      <c r="J79" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
+      <c r="A80" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="7"/>
-      <c r="J80" s="21"/>
+      <c r="H80" s="23">
+        <f>SUM(C80:G80)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="24"/>
+      <c r="J80" s="11" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="7"/>
-      <c r="J81" s="21"/>
+      <c r="A81" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="23">
+        <f>SUM(C81:G81)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="24"/>
+      <c r="J81" s="11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="7"/>
+      <c r="A82" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="23">
+        <f>SUM(C82:G82)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="24"/>
+      <c r="J82" s="11" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
+      <c r="A83" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="7"/>
+      <c r="H83" s="23">
+        <f>SUM(C83:G83)</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
+      <c r="A84" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="7"/>
+      <c r="H84" s="23">
+        <f>SUM(C84:G84)</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
+      <c r="A85" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="7"/>
+      <c r="H85" s="23">
+        <f>SUM(C85:G85)</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="7"/>
+      <c r="A86" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="23">
+        <f>SUM(C86:G86)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="7"/>
+      <c r="A87" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="23">
+        <f>SUM(C87:G87)</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
+      <c r="A88" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="7"/>
+      <c r="H88" s="23">
+        <f>SUM(C88:G88)</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
@@ -2698,8 +3141,41 @@
     <hyperlink ref="J53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="J54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="J55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J56" r:id="rId53" xr:uid="{0740B310-04B7-4C0D-8009-8B1344CA4389}"/>
+    <hyperlink ref="J57" r:id="rId54" xr:uid="{AF1CE61B-3E92-44B5-9478-846E25AF0CA6}"/>
+    <hyperlink ref="J58" r:id="rId55" xr:uid="{9C3CC01B-AF04-4C17-BBE9-35083A501BF2}"/>
+    <hyperlink ref="J59" r:id="rId56" xr:uid="{DE9A3EDA-6E7D-4FA4-98E6-F1F26BDC7854}"/>
+    <hyperlink ref="J60" r:id="rId57" xr:uid="{F5AA5160-BEF5-421F-AD8D-ACAA31E165CD}"/>
+    <hyperlink ref="J61" r:id="rId58" xr:uid="{57AD2140-A6AF-40BE-8AF6-B12D6401EFB5}"/>
+    <hyperlink ref="J62" r:id="rId59" xr:uid="{B4B11586-FFDF-457D-B98E-1730D73ACD8B}"/>
+    <hyperlink ref="J63" r:id="rId60" xr:uid="{16F2DEDB-AEED-4E42-8DA9-4C6AEF6C127A}"/>
+    <hyperlink ref="J64" r:id="rId61" xr:uid="{1BCE91EB-2D79-4002-AB12-140C116DA709}"/>
+    <hyperlink ref="J65" r:id="rId62" xr:uid="{7645F46B-A468-4C5A-B57B-3BAB13FF745D}"/>
+    <hyperlink ref="J66" r:id="rId63" xr:uid="{B629BEE0-4C27-428E-8215-000F479BE1CD}"/>
+    <hyperlink ref="J67" r:id="rId64" xr:uid="{310EB85C-92F1-48D9-A329-D66982890631}"/>
+    <hyperlink ref="J68" r:id="rId65" xr:uid="{4ED2FB83-09F4-4A18-AAF7-7E6A7591F3B0}"/>
+    <hyperlink ref="J69" r:id="rId66" xr:uid="{91E94016-0B3C-48DF-91D9-32544BF16AC9}"/>
+    <hyperlink ref="J70" r:id="rId67" xr:uid="{F1686D50-E80B-447A-A599-5F1F4F5CCDE1}"/>
+    <hyperlink ref="J71" r:id="rId68" xr:uid="{4C98B669-6677-45BA-8FED-52B5C3878C41}"/>
+    <hyperlink ref="J72" r:id="rId69" xr:uid="{CC4B87C6-CE7D-49AE-9853-C5D4ADC54FEB}"/>
+    <hyperlink ref="J73" r:id="rId70" xr:uid="{7CA935D3-6596-4E5D-9D5A-E4639A7A4FEE}"/>
+    <hyperlink ref="J74" r:id="rId71" xr:uid="{E8F35EC5-D691-4178-94FB-C58F9CA8F473}"/>
+    <hyperlink ref="J75" r:id="rId72" xr:uid="{B2920B32-4B8F-4E4F-AB3C-7368ABA00631}"/>
+    <hyperlink ref="J76" r:id="rId73" xr:uid="{CC817C6B-E06D-4BD7-A560-74143DDA76BC}"/>
+    <hyperlink ref="J77" r:id="rId74" xr:uid="{76E85EB0-BAA1-41E0-B910-C8EB7F8EEEBB}"/>
+    <hyperlink ref="J78" r:id="rId75" xr:uid="{781C706B-8E65-4713-BB7C-2BF00B58BCD1}"/>
+    <hyperlink ref="J79" r:id="rId76" xr:uid="{F4AC0313-CDBD-4174-BA44-66E94D71FA07}"/>
+    <hyperlink ref="J80" r:id="rId77" xr:uid="{AC761BC6-940D-4925-86E3-9935D32EC190}"/>
+    <hyperlink ref="J81" r:id="rId78" xr:uid="{F552DC8A-84B8-46E4-8115-679F0A76AB85}"/>
+    <hyperlink ref="J82" r:id="rId79" xr:uid="{834952FC-DF61-4454-8D76-BAFC880475C4}"/>
+    <hyperlink ref="J83" r:id="rId80" xr:uid="{57D1CD0B-4AB5-4605-BDBE-1C09A85887CB}"/>
+    <hyperlink ref="J84" r:id="rId81" xr:uid="{12C5BA72-36AB-439F-AE40-BDC759B3880F}"/>
+    <hyperlink ref="J85" r:id="rId82" xr:uid="{64CD4190-E852-424E-BBAB-38738B968F40}"/>
+    <hyperlink ref="J86" r:id="rId83" xr:uid="{E47526F7-51FE-4FEA-BD07-CC39C039B720}"/>
+    <hyperlink ref="J87" r:id="rId84" xr:uid="{7B28A6E8-38F1-4DCF-9EA8-FD15214FC9ED}"/>
+    <hyperlink ref="J88" r:id="rId85" xr:uid="{FCE35834-3B50-4367-B628-3F56C2D9CA1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
--- a/level-2/hackerrank-phase-2-data-structures/hackerrank-phase-2-data-structures.xlsx
+++ b/level-2/hackerrank-phase-2-data-structures/hackerrank-phase-2-data-structures.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E9665-4BBF-4C46-9392-DF321A8FD5A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E0DB5-0F1F-4696-88DD-EB110C8723D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="130">
   <si>
     <t>Problem Link</t>
   </si>
@@ -224,103 +224,187 @@
     <t>Learning Time in (min)</t>
   </si>
   <si>
-    <t>implementation</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/grading/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/apple-and-orange/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/kangaroo/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/between-two-sets/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/breaking-best-and-worst-records/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/the-birthday-bar/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/divisible-sum-pairs/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/migratory-birds/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/day-of-the-programmer/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/bon-appetit/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/sock-merchant/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/drawing-book/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/counting-valleys/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/electronics-shop/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/cats-and-a-mouse/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/the-hurdle-race/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/designer-pdf-viewer/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/utopian-tree/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/angry-professor/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/beautiful-days-at-the-movies/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/strange-advertising/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/save-the-prisoner/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/circular-array-rotation/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/permutation-equation/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/jumping-on-the-clouds-revisited/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/find-digits/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/append-and-delete/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/sherlock-and-squares/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/library-fine/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/cut-the-sticks/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/repeated-string/problem</t>
-  </si>
-  <si>
-    <t>https://www.hackerrank.com/challenges/jumping-on-the-clouds/problem</t>
+    <t>https://www.hackerrank.com/challenges/max-transform/problem</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/box-operations/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/find-the-permutation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/easy-addition/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/ab0/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/beautiful-segments/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/almost-sorted-interval/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/almost-equal-advanced/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/number-game-on-a-tree/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/ticket-to-ride/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/pair-sums/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/fibonacci-numbers-tree/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/counting-on-a-tree/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/company-retreat/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/helix/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/jagia-playing-with-numbers/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/taxicab-drivers-problem/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/triplets/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/subtrees-and-paths/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/coolguy-and-two-subsequences/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/arithmetic-progressions/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/swaps-and-sum/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/starfleet/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/heavy-light-2-white-falcon/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/little-alexey-and-sum-of-maximums/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/functional-palindromes/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/unique-colors/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/self-driving-bus/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/subsequence-weighting/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/net-admin/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/rooted-tree/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/weird-queries/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/white-falcon-and-tree/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/recalling-early-days-gp-with-trees/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/coloring-tree/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/roy-and-alpha-beta-trees/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/burger-happiness/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/heavy-light-white-falcon/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/lazy-white-falcon/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/the-strange-function/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/costly-intervals/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/polynomial-division/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/palindromic-subsets/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/direct-connections/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/cube-summation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/find-maximum-index-product/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/jim-and-the-skyscrapers/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/x-and-his-shots/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/kindergarten-adventures/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/no-prefix-set/problem</t>
+  </si>
+  <si>
+    <t>heap &amp; disjoint set &amp; trie</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/maximum-cost-queries/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/minimum-average-waiting-time/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/find-the-running-median/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/kundu-and-tree/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/merging-communities/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/contacts/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/components-in-graph/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/jesse-and-cookies/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/qheap1/problem</t>
   </si>
 </sst>
 </file>
@@ -525,6 +609,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -552,18 +642,96 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -947,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -967,74 +1135,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C113)</f>
+        <f>AVERAGE(C4:C55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H55)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1043,7 +1211,7 @@
       </c>
       <c r="J3" s="5">
         <f>COUNTA(J4:J817)</f>
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1142,7 +1310,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H55" si="1">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H55" si="0">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
@@ -1163,7 +1331,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
@@ -1184,7 +1352,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
@@ -1205,7 +1373,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
@@ -1226,7 +1394,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
@@ -1247,7 +1415,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
@@ -1268,7 +1436,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
@@ -1289,7 +1457,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
@@ -1310,7 +1478,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
@@ -1331,7 +1499,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
@@ -1352,7 +1520,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
@@ -1373,7 +1541,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
@@ -1394,7 +1562,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -1415,7 +1583,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
@@ -1436,7 +1604,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -1457,7 +1625,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
@@ -1478,7 +1646,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
@@ -1499,7 +1667,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
@@ -1520,7 +1688,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
@@ -1541,7 +1709,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
@@ -1562,7 +1730,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
@@ -1583,7 +1751,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
@@ -1604,7 +1772,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
@@ -1625,7 +1793,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
@@ -1646,7 +1814,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
@@ -1667,7 +1835,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
@@ -1688,7 +1856,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
@@ -1709,7 +1877,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
@@ -1730,7 +1898,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
@@ -1751,7 +1919,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
@@ -1772,7 +1940,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
@@ -1793,7 +1961,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
@@ -1814,7 +1982,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
@@ -1835,7 +2003,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
@@ -1856,7 +2024,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
@@ -1877,7 +2045,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
@@ -1898,7 +2066,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
@@ -1919,7 +2087,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
@@ -1940,7 +2108,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
@@ -1961,7 +2129,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
@@ -1982,7 +2150,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
@@ -2003,7 +2171,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
@@ -2024,7 +2192,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
@@ -2045,7 +2213,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
@@ -2066,7 +2234,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
@@ -2087,7 +2255,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
@@ -2108,7 +2276,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
@@ -2129,7 +2297,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
@@ -2139,7 +2307,7 @@
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>1</v>
@@ -2149,18 +2317,18 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="23">
+      <c r="H56" s="14">
         <f>SUM(C56:G56)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="24"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="11" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>1</v>
@@ -2170,875 +2338,1250 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="23">
+      <c r="H57" s="14">
         <f>SUM(C57:G57)</f>
         <v>0</v>
       </c>
-      <c r="I57" s="24"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="11" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="23">
+      <c r="H58" s="14">
         <f>SUM(C58:G58)</f>
         <v>0</v>
       </c>
-      <c r="I58" s="24"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="11" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="23">
+      <c r="H59" s="14">
         <f>SUM(C59:G59)</f>
         <v>0</v>
       </c>
-      <c r="I59" s="24"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="11" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="23">
+      <c r="H60" s="14">
         <f>SUM(C60:G60)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="24"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="11" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="23">
+      <c r="H61" s="14">
         <f>SUM(C61:G61)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="24"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="11" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="23">
+      <c r="H62" s="14">
         <f>SUM(C62:G62)</f>
         <v>0</v>
       </c>
-      <c r="I62" s="24"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="11" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="23">
+      <c r="H63" s="14">
         <f>SUM(C63:G63)</f>
         <v>0</v>
       </c>
-      <c r="I63" s="24"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="11" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="23">
+      <c r="H64" s="14">
         <f>SUM(C64:G64)</f>
         <v>0</v>
       </c>
-      <c r="I64" s="24"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="11" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
-      <c r="H65" s="23">
+      <c r="H65" s="14">
         <f>SUM(C65:G65)</f>
         <v>0</v>
       </c>
-      <c r="I65" s="24"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="11" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="23">
+      <c r="H66" s="14">
         <f>SUM(C66:G66)</f>
         <v>0</v>
       </c>
-      <c r="I66" s="24"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="11" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="23">
+      <c r="H67" s="14">
         <f>SUM(C67:G67)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="24"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="11" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="23">
+      <c r="H68" s="14">
         <f>SUM(C68:G68)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="24"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="11" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="23">
+      <c r="H69" s="14">
         <f>SUM(C69:G69)</f>
         <v>0</v>
       </c>
-      <c r="I69" s="24"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="11" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="23">
+      <c r="H70" s="14">
         <f>SUM(C70:G70)</f>
         <v>0</v>
       </c>
-      <c r="I70" s="24"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="11" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="23">
+      <c r="H71" s="14">
         <f>SUM(C71:G71)</f>
         <v>0</v>
       </c>
-      <c r="I71" s="24"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="11" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="23">
+      <c r="H72" s="14">
         <f>SUM(C72:G72)</f>
         <v>0</v>
       </c>
-      <c r="I72" s="24"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="11" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="23">
+      <c r="H73" s="14">
         <f>SUM(C73:G73)</f>
         <v>0</v>
       </c>
-      <c r="I73" s="24"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="11" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="23">
+      <c r="H74" s="14">
         <f>SUM(C74:G74)</f>
         <v>0</v>
       </c>
-      <c r="I74" s="24"/>
-      <c r="J74" s="11" t="s">
-        <v>87</v>
+      <c r="J74" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="23">
+      <c r="H75" s="14">
         <f>SUM(C75:G75)</f>
         <v>0</v>
       </c>
-      <c r="I75" s="24"/>
-      <c r="J75" s="11" t="s">
-        <v>88</v>
+      <c r="J75" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
-      <c r="H76" s="23">
+      <c r="H76" s="14">
         <f>SUM(C76:G76)</f>
         <v>0</v>
       </c>
-      <c r="I76" s="24"/>
-      <c r="J76" s="11" t="s">
-        <v>89</v>
+      <c r="J76" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="23">
+      <c r="H77" s="14">
         <f>SUM(C77:G77)</f>
         <v>0</v>
       </c>
-      <c r="I77" s="24"/>
-      <c r="J77" s="11" t="s">
-        <v>90</v>
+      <c r="J77" s="12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
-      <c r="H78" s="23">
+      <c r="H78" s="14">
         <f>SUM(C78:G78)</f>
         <v>0</v>
       </c>
-      <c r="I78" s="24"/>
-      <c r="J78" s="11" t="s">
-        <v>91</v>
+      <c r="J78" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="23">
+      <c r="H79" s="14">
         <f>SUM(C79:G79)</f>
         <v>0</v>
       </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="11" t="s">
-        <v>92</v>
+      <c r="J79" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="23">
+      <c r="H80" s="14">
         <f>SUM(C80:G80)</f>
         <v>0</v>
       </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="11" t="s">
-        <v>93</v>
+      <c r="J80" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="23">
+      <c r="H81" s="14">
         <f>SUM(C81:G81)</f>
         <v>0</v>
       </c>
-      <c r="I81" s="24"/>
-      <c r="J81" s="11" t="s">
-        <v>94</v>
+      <c r="J81" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
-      <c r="H82" s="23">
+      <c r="H82" s="14">
         <f>SUM(C82:G82)</f>
         <v>0</v>
       </c>
-      <c r="I82" s="24"/>
-      <c r="J82" s="11" t="s">
-        <v>95</v>
+      <c r="J82" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
-      <c r="H83" s="23">
+      <c r="H83" s="14">
         <f>SUM(C83:G83)</f>
         <v>0</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="23">
+      <c r="H84" s="14">
         <f>SUM(C84:G84)</f>
         <v>0</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
-      <c r="H85" s="23">
+      <c r="H85" s="14">
         <f>SUM(C85:G85)</f>
         <v>0</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
-      <c r="H86" s="23">
+      <c r="H86" s="14">
         <f>SUM(C86:G86)</f>
         <v>0</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="23">
+      <c r="H87" s="14">
         <f>SUM(C87:G87)</f>
         <v>0</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
-      <c r="H88" s="23">
+      <c r="H88" s="14">
         <f>SUM(C88:G88)</f>
         <v>0</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
+      <c r="A89" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
-      <c r="H89" s="7"/>
+      <c r="H89" s="14">
+        <f>SUM(C89:G89)</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
+      <c r="A90" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
-      <c r="H90" s="7"/>
+      <c r="H90" s="14">
+        <f>SUM(C90:G90)</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
+      <c r="A91" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
-      <c r="H91" s="7"/>
+      <c r="H91" s="14">
+        <f>SUM(C91:G91)</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="7"/>
+      <c r="A92" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="14">
+        <f>SUM(C92:G92)</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
+      <c r="A93" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
-      <c r="H93" s="7"/>
+      <c r="H93" s="14">
+        <f>SUM(C93:G93)</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
+      <c r="A94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
-      <c r="H94" s="7"/>
+      <c r="H94" s="14">
+        <f>SUM(C94:G94)</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
+      <c r="A95" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
-      <c r="H95" s="7"/>
+      <c r="H95" s="14">
+        <f>SUM(C95:G95)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
+      <c r="A96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
+      <c r="H96" s="14">
+        <f>SUM(C96:G96)</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
+      <c r="H97" s="14">
+        <f>SUM(C97:G97)</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
-      <c r="H98" s="7"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
+      <c r="H98" s="14">
+        <f>SUM(C98:G98)</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
+      <c r="H99" s="14">
+        <f>SUM(C99:G99)</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
+      <c r="H100" s="14">
+        <f>SUM(C100:G100)</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
+      <c r="H101" s="14">
+        <f>SUM(C101:G101)</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
+      <c r="H102" s="14">
+        <f>SUM(C102:G102)</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
+      <c r="H103" s="14">
+        <f>SUM(C103:G103)</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H104" s="14">
+        <f>SUM(C104:G104)</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="7"/>
-    </row>
-    <row r="106" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H105" s="14">
+        <f>SUM(C105:G105)</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
-      <c r="H106" s="7"/>
-    </row>
-    <row r="107" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H106" s="14">
+        <f>SUM(C106:G106)</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
-      <c r="H107" s="7"/>
-    </row>
-    <row r="108" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H107" s="14">
+        <f>SUM(C107:G107)</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="7"/>
-    </row>
-    <row r="109" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H108" s="14">
+        <f>SUM(C108:G108)</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H109" s="14">
+        <f>SUM(C109:G109)</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
-      <c r="H110" s="7"/>
-    </row>
-    <row r="111" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H110" s="14">
+        <f>SUM(C110:G110)</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H111" s="14">
+        <f>SUM(C111:G111)</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H112" s="14">
+        <f>SUM(C112:G112)</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
-      <c r="H113" s="7"/>
+      <c r="H113" s="14">
+        <f>SUM(C113:G113)</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="14">
+        <f>SUM(C114:G114)</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="14">
+        <f>SUM(C115:G115)</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="14">
+        <f>SUM(C116:G116)</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="14">
+        <f>SUM(C117:G117)</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="14">
+        <f>SUM(C118:G118)</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3054,37 +3597,97 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="6" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="4" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63:J65 J67:J70">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J71">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63:J71">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:I65 I67:I70">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:I71">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3141,41 +3744,71 @@
     <hyperlink ref="J53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="J54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="J55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J56" r:id="rId53" xr:uid="{0740B310-04B7-4C0D-8009-8B1344CA4389}"/>
-    <hyperlink ref="J57" r:id="rId54" xr:uid="{AF1CE61B-3E92-44B5-9478-846E25AF0CA6}"/>
-    <hyperlink ref="J58" r:id="rId55" xr:uid="{9C3CC01B-AF04-4C17-BBE9-35083A501BF2}"/>
-    <hyperlink ref="J59" r:id="rId56" xr:uid="{DE9A3EDA-6E7D-4FA4-98E6-F1F26BDC7854}"/>
-    <hyperlink ref="J60" r:id="rId57" xr:uid="{F5AA5160-BEF5-421F-AD8D-ACAA31E165CD}"/>
-    <hyperlink ref="J61" r:id="rId58" xr:uid="{57AD2140-A6AF-40BE-8AF6-B12D6401EFB5}"/>
-    <hyperlink ref="J62" r:id="rId59" xr:uid="{B4B11586-FFDF-457D-B98E-1730D73ACD8B}"/>
-    <hyperlink ref="J63" r:id="rId60" xr:uid="{16F2DEDB-AEED-4E42-8DA9-4C6AEF6C127A}"/>
-    <hyperlink ref="J64" r:id="rId61" xr:uid="{1BCE91EB-2D79-4002-AB12-140C116DA709}"/>
-    <hyperlink ref="J65" r:id="rId62" xr:uid="{7645F46B-A468-4C5A-B57B-3BAB13FF745D}"/>
-    <hyperlink ref="J66" r:id="rId63" xr:uid="{B629BEE0-4C27-428E-8215-000F479BE1CD}"/>
-    <hyperlink ref="J67" r:id="rId64" xr:uid="{310EB85C-92F1-48D9-A329-D66982890631}"/>
-    <hyperlink ref="J68" r:id="rId65" xr:uid="{4ED2FB83-09F4-4A18-AAF7-7E6A7591F3B0}"/>
-    <hyperlink ref="J69" r:id="rId66" xr:uid="{91E94016-0B3C-48DF-91D9-32544BF16AC9}"/>
-    <hyperlink ref="J70" r:id="rId67" xr:uid="{F1686D50-E80B-447A-A599-5F1F4F5CCDE1}"/>
-    <hyperlink ref="J71" r:id="rId68" xr:uid="{4C98B669-6677-45BA-8FED-52B5C3878C41}"/>
-    <hyperlink ref="J72" r:id="rId69" xr:uid="{CC4B87C6-CE7D-49AE-9853-C5D4ADC54FEB}"/>
-    <hyperlink ref="J73" r:id="rId70" xr:uid="{7CA935D3-6596-4E5D-9D5A-E4639A7A4FEE}"/>
-    <hyperlink ref="J74" r:id="rId71" xr:uid="{E8F35EC5-D691-4178-94FB-C58F9CA8F473}"/>
-    <hyperlink ref="J75" r:id="rId72" xr:uid="{B2920B32-4B8F-4E4F-AB3C-7368ABA00631}"/>
-    <hyperlink ref="J76" r:id="rId73" xr:uid="{CC817C6B-E06D-4BD7-A560-74143DDA76BC}"/>
-    <hyperlink ref="J77" r:id="rId74" xr:uid="{76E85EB0-BAA1-41E0-B910-C8EB7F8EEEBB}"/>
-    <hyperlink ref="J78" r:id="rId75" xr:uid="{781C706B-8E65-4713-BB7C-2BF00B58BCD1}"/>
-    <hyperlink ref="J79" r:id="rId76" xr:uid="{F4AC0313-CDBD-4174-BA44-66E94D71FA07}"/>
-    <hyperlink ref="J80" r:id="rId77" xr:uid="{AC761BC6-940D-4925-86E3-9935D32EC190}"/>
-    <hyperlink ref="J81" r:id="rId78" xr:uid="{F552DC8A-84B8-46E4-8115-679F0A76AB85}"/>
-    <hyperlink ref="J82" r:id="rId79" xr:uid="{834952FC-DF61-4454-8D76-BAFC880475C4}"/>
-    <hyperlink ref="J83" r:id="rId80" xr:uid="{57D1CD0B-4AB5-4605-BDBE-1C09A85887CB}"/>
-    <hyperlink ref="J84" r:id="rId81" xr:uid="{12C5BA72-36AB-439F-AE40-BDC759B3880F}"/>
-    <hyperlink ref="J85" r:id="rId82" xr:uid="{64CD4190-E852-424E-BBAB-38738B968F40}"/>
-    <hyperlink ref="J86" r:id="rId83" xr:uid="{E47526F7-51FE-4FEA-BD07-CC39C039B720}"/>
-    <hyperlink ref="J87" r:id="rId84" xr:uid="{7B28A6E8-38F1-4DCF-9EA8-FD15214FC9ED}"/>
-    <hyperlink ref="J88" r:id="rId85" xr:uid="{FCE35834-3B50-4367-B628-3F56C2D9CA1D}"/>
+    <hyperlink ref="J56" r:id="rId53" xr:uid="{1D6178F1-9F22-4449-BDE8-8373A017429D}"/>
+    <hyperlink ref="J57" r:id="rId54" xr:uid="{AF73D9D2-46AF-4B7C-8DDB-24D7860920B5}"/>
+    <hyperlink ref="J58" r:id="rId55" xr:uid="{90F5DDC4-00BA-434B-AB49-28DDA52F1063}"/>
+    <hyperlink ref="J59" r:id="rId56" xr:uid="{CB449A9E-1661-475B-ACCB-61AC7AF48921}"/>
+    <hyperlink ref="J60" r:id="rId57" xr:uid="{BAF0B885-839D-4307-B236-41B6001EEC62}"/>
+    <hyperlink ref="J61" r:id="rId58" xr:uid="{B395B148-39E4-43C0-812D-A21C8CEF6523}"/>
+    <hyperlink ref="J62" r:id="rId59" xr:uid="{250B0F6F-677F-42B6-A410-6B85F634D136}"/>
+    <hyperlink ref="J63" r:id="rId60" xr:uid="{F32FFC0D-E014-43A2-9D01-357F4AE36ADC}"/>
+    <hyperlink ref="J64" r:id="rId61" xr:uid="{4596BA03-E3B3-4800-A7F8-5E4E4617BB6F}"/>
+    <hyperlink ref="J65" r:id="rId62" xr:uid="{EA8D4E91-BC07-4D78-9A1D-B47DA8A45442}"/>
+    <hyperlink ref="J66" r:id="rId63" xr:uid="{ACDAD461-E1D3-4D53-9A7C-31D705CB9151}"/>
+    <hyperlink ref="J67" r:id="rId64" xr:uid="{D9DB9E27-0F1C-4F13-ADF8-4D24FF9A9441}"/>
+    <hyperlink ref="J68" r:id="rId65" xr:uid="{142C03CB-B300-4684-9031-BA9661E0F1C4}"/>
+    <hyperlink ref="J69" r:id="rId66" xr:uid="{F5D7FACF-D6CD-42ED-8953-BD62E804312D}"/>
+    <hyperlink ref="J70" r:id="rId67" xr:uid="{F11DC37E-AEEC-4B50-8507-77DDEAB22F4D}"/>
+    <hyperlink ref="J71" r:id="rId68" xr:uid="{C0A1ED5A-B3C3-48D9-BFE7-5E5A7721FCBA}"/>
+    <hyperlink ref="J72" r:id="rId69" xr:uid="{C2F76AC5-528A-4787-940D-CF12B4A29DC8}"/>
+    <hyperlink ref="J73" r:id="rId70" xr:uid="{F574C7A0-B59F-414B-B7AD-9C658CA59041}"/>
+    <hyperlink ref="J74" r:id="rId71" xr:uid="{6EAF58C2-09F1-4B16-A6E0-67653C1C49F0}"/>
+    <hyperlink ref="J75" r:id="rId72" xr:uid="{90A74AD1-6BC0-4684-AD01-40C73076F467}"/>
+    <hyperlink ref="J76" r:id="rId73" xr:uid="{C4AFFFD6-3BB2-4394-A682-B957DF913147}"/>
+    <hyperlink ref="J77" r:id="rId74" xr:uid="{D0AA45F9-3C58-4AA7-A415-44C16EC86197}"/>
+    <hyperlink ref="J78" r:id="rId75" xr:uid="{F324670A-FFB3-4A7A-8813-3B5A64E6EE4C}"/>
+    <hyperlink ref="J79" r:id="rId76" xr:uid="{932AD472-9244-442E-AE4D-9D6978BCF5D0}"/>
+    <hyperlink ref="J80" r:id="rId77" xr:uid="{F817F71A-D0CB-4AF0-B4F1-B79152961602}"/>
+    <hyperlink ref="J81" r:id="rId78" xr:uid="{8C3DA706-1A1C-488D-B48E-1BDB6FFD5A3D}"/>
+    <hyperlink ref="J82" r:id="rId79" xr:uid="{7FF19FE8-A95A-4638-9DDA-E931C1054364}"/>
+    <hyperlink ref="J83" r:id="rId80" xr:uid="{2829B841-A29D-4A72-B811-0F501C6767C5}"/>
+    <hyperlink ref="J84" r:id="rId81" xr:uid="{8FB1E68F-08E1-47FD-B91A-E12CF5E59288}"/>
+    <hyperlink ref="J85" r:id="rId82" xr:uid="{060C7051-3125-42C9-9226-1EE0F102AD7F}"/>
+    <hyperlink ref="J86" r:id="rId83" xr:uid="{1AEBF75B-24C0-42A3-A676-DE113B984D47}"/>
+    <hyperlink ref="J87" r:id="rId84" xr:uid="{5CBC4751-71F8-4B1B-952C-9F10C441165C}"/>
+    <hyperlink ref="J88" r:id="rId85" xr:uid="{BB404F89-9677-4F74-A17F-3BEDEAEF3A4E}"/>
+    <hyperlink ref="J89" r:id="rId86" xr:uid="{3B070C6B-99A3-4C17-9C82-0138E326D02F}"/>
+    <hyperlink ref="J90" r:id="rId87" xr:uid="{9684D3BF-AA9A-48A6-B798-07BE91FE2FCE}"/>
+    <hyperlink ref="J91" r:id="rId88" xr:uid="{8D9B4EDD-40F4-4FA1-82AB-0A4E5C492CAB}"/>
+    <hyperlink ref="J92" r:id="rId89" xr:uid="{323CD34F-C7F9-4932-982F-77126C1C2983}"/>
+    <hyperlink ref="J93" r:id="rId90" xr:uid="{E4D0FFC3-CA21-47F2-B7D3-A9F95AE577DF}"/>
+    <hyperlink ref="J94" r:id="rId91" xr:uid="{760A2BD2-5E3C-40E1-A3AE-DFBC3A0A1109}"/>
+    <hyperlink ref="J95" r:id="rId92" xr:uid="{F8A2A971-C999-4BA4-BD57-A282C2058758}"/>
+    <hyperlink ref="J96" r:id="rId93" xr:uid="{5FAFA49C-35B6-4BF4-9CA7-4C54CC0AEC3E}"/>
+    <hyperlink ref="J97" r:id="rId94" xr:uid="{FECCBF6C-F899-4A62-B029-0937A52348BA}"/>
+    <hyperlink ref="J98" r:id="rId95" xr:uid="{ACAA6AF2-1659-4082-9155-385E90AC259D}"/>
+    <hyperlink ref="J99" r:id="rId96" xr:uid="{2EDB9A33-2CD4-48C8-90C5-3F030161C1E0}"/>
+    <hyperlink ref="J100" r:id="rId97" xr:uid="{A327B723-F128-484A-865E-1AE70D3452B3}"/>
+    <hyperlink ref="J101" r:id="rId98" xr:uid="{622EEF9B-A645-4A9E-976A-044D1347C382}"/>
+    <hyperlink ref="J102" r:id="rId99" xr:uid="{81C5E3CF-8468-4A6B-917F-1F2BCDDC3EA4}"/>
+    <hyperlink ref="J103" r:id="rId100" xr:uid="{4DA42E1C-2899-4A0B-BBA2-24794D14BE7D}"/>
+    <hyperlink ref="J104" r:id="rId101" xr:uid="{1742A9F0-1112-44B7-BABC-398948368937}"/>
+    <hyperlink ref="J105" r:id="rId102" xr:uid="{4354D633-E239-47D7-AE12-128093C80ED8}"/>
+    <hyperlink ref="J106" r:id="rId103" xr:uid="{49F2F3D2-4309-4F92-863A-0E0BE9424756}"/>
+    <hyperlink ref="J107" r:id="rId104" xr:uid="{04964753-C728-4497-A940-809411E0A0B8}"/>
+    <hyperlink ref="J108" r:id="rId105" xr:uid="{41AB2575-7233-40FA-A02A-6EBE3601DB21}"/>
+    <hyperlink ref="J109" r:id="rId106" xr:uid="{6D09CF6F-2778-4251-9EF8-42C26F8880A0}"/>
+    <hyperlink ref="J110" r:id="rId107" xr:uid="{3B6593A1-41D4-4E60-8945-9C5A7A7CB46C}"/>
+    <hyperlink ref="J111" r:id="rId108" xr:uid="{35525EBD-CADA-46B4-9379-6CA32B530860}"/>
+    <hyperlink ref="J112" r:id="rId109" xr:uid="{479ACB00-7B3C-430D-A2A8-10DE092A1FB0}"/>
+    <hyperlink ref="J113" r:id="rId110" xr:uid="{4F476F4C-ACA9-4EAB-8152-F144BB193806}"/>
+    <hyperlink ref="J114" r:id="rId111" xr:uid="{11F9F39F-B6C1-4FAC-8B5A-9D2DEBCBCFD3}"/>
+    <hyperlink ref="J115" r:id="rId112" xr:uid="{434B6921-3B1E-46DE-9EEA-553BDB9F5B72}"/>
+    <hyperlink ref="J116" r:id="rId113" xr:uid="{75777122-E751-406D-8E49-EBC1616FB4D3}"/>
+    <hyperlink ref="J117" r:id="rId114" xr:uid="{CAA342CD-165B-4335-9AF2-AA4901D2FF7C}"/>
+    <hyperlink ref="J118" r:id="rId115" xr:uid="{E19F17FA-2AD4-4345-AF20-A65E412459B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId86"/>
+  <pageSetup orientation="portrait" r:id="rId116"/>
 </worksheet>
 </file>